--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>103.3147304332928</v>
+        <v>1342.424741675328</v>
       </c>
       <c r="R2">
-        <v>103.3147304332928</v>
+        <v>12081.82267507795</v>
       </c>
       <c r="S2">
-        <v>0.06531362205198907</v>
+        <v>0.2884346850294666</v>
       </c>
       <c r="T2">
-        <v>0.06531362205198907</v>
+        <v>0.2884346850294666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>300.4815695016848</v>
+        <v>1348.713701048177</v>
       </c>
       <c r="R3">
-        <v>300.4815695016848</v>
+        <v>12138.42330943359</v>
       </c>
       <c r="S3">
-        <v>0.1899587753044872</v>
+        <v>0.2897859369541049</v>
       </c>
       <c r="T3">
-        <v>0.1899587753044872</v>
+        <v>0.2897859369541049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>13.32862352385218</v>
+        <v>64.76493758818432</v>
       </c>
       <c r="R4">
-        <v>13.32862352385218</v>
+        <v>582.8844382936589</v>
       </c>
       <c r="S4">
-        <v>0.008426104154355938</v>
+        <v>0.01391545745118497</v>
       </c>
       <c r="T4">
-        <v>0.008426104154355938</v>
+        <v>0.01391545745118498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>153.7320822480598</v>
+        <v>473.027629497984</v>
       </c>
       <c r="R5">
-        <v>153.7320822480598</v>
+        <v>4257.248665481856</v>
       </c>
       <c r="S5">
-        <v>0.0971865200161183</v>
+        <v>0.1016351763259473</v>
       </c>
       <c r="T5">
-        <v>0.0971865200161183</v>
+        <v>0.1016351763259473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>447.1158871820796</v>
+        <v>475.2436580408097</v>
       </c>
       <c r="R6">
-        <v>447.1158871820796</v>
+        <v>4277.192922367288</v>
       </c>
       <c r="S6">
-        <v>0.2826582225630011</v>
+        <v>0.1021113143729626</v>
       </c>
       <c r="T6">
-        <v>0.2826582225630011</v>
+        <v>0.1021113143729626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>19.83296127501653</v>
+        <v>22.82109674445578</v>
       </c>
       <c r="R7">
-        <v>19.83296127501653</v>
+        <v>205.389870700102</v>
       </c>
       <c r="S7">
-        <v>0.01253802368215578</v>
+        <v>0.00490336303195615</v>
       </c>
       <c r="T7">
-        <v>0.01253802368215578</v>
+        <v>0.00490336303195615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>134.7443042243642</v>
+        <v>451.635867997632</v>
       </c>
       <c r="R8">
-        <v>134.7443042243642</v>
+        <v>4064.722811978688</v>
       </c>
       <c r="S8">
-        <v>0.085182805228831</v>
+        <v>0.09703892165406211</v>
       </c>
       <c r="T8">
-        <v>0.085182805228831</v>
+        <v>0.09703892165406212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>391.8916484120476</v>
+        <v>453.7516809270138</v>
       </c>
       <c r="R9">
-        <v>391.8916484120476</v>
+        <v>4083.765128343124</v>
       </c>
       <c r="S9">
-        <v>0.2477465014172586</v>
+        <v>0.09749352727694857</v>
       </c>
       <c r="T9">
-        <v>0.2477465014172586</v>
+        <v>0.09749352727694859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>17.38334984234944</v>
+        <v>21.78905669374678</v>
       </c>
       <c r="R10">
-        <v>17.38334984234944</v>
+        <v>196.101510243721</v>
       </c>
       <c r="S10">
-        <v>0.01098942558180306</v>
+        <v>0.004681617903367004</v>
       </c>
       <c r="T10">
-        <v>0.01098942558180306</v>
+        <v>0.004681617903367005</v>
       </c>
     </row>
   </sheetData>
